--- a/similarities/split_global/harmonic_similarity_timestamps_171.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_171.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,143 +484,159 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:00.780000', '0:00:23.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min'], ['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988'), ('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:10.360000', '0:00:18.440000'), ('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=10.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:36.400000', '0:00:55.360000')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=36.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -630,32 +646,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:04:11.500000', '0:04:17.660000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:01:22.290863', '0:01:33.575761')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000'), ('0:00:44.200000', '0:00:59.980000'), ('0:00:09.260000', '0:00:13.900000')]</t>
+          <t>('0:02:08.760000', '0:02:13.560000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=9.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -664,510 +680,562 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:41.520000', '0:00:46.940000')]</t>
+          <t>('0:02:14.460000', '0:02:17.180000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.210000', '0:00:15.930000')]</t>
+          <t>('0:00:04.200000', '0:00:19.320000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=134.46</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=4.2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:38.180000', '0:00:51.980000')]</t>
+          <t>('0:00:23.140000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:07.360000', '0:00:19.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=38.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D', 'A:7']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/A', 'A:7']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:05.097068', '0:01:13.909041')]</t>
+          <t>('0:00:02.860000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:47.800000', '0:00:52.200000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=65.097068']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=47.8']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['A#:7', 'D#', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G#:7', 'C#:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:36.420000', '0:00:38.760000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:36.980000', '0:00:42.420000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=36.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=36.98</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:07.840000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_98</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:33.340317', '0:00:56.455803')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:04:32.560000', '0:04:34.520000')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=272.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_227</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:39.160000', '0:00:42.240000'), ('0:00:10.820000', '0:00:17.080000'), ('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:06.940000', '0:00:17.120000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.900000', '0:00:18.820000'), ('0:00:01.180000', '0:00:06.140000'), ('0:02:08.760000', '0:02:13.560000')]</t>
+          <t>('0:00:20.045192', '0:00:25.141972')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=39.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=13.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>isophonics_283</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000')]</t>
+          <t>('0:01:00.898000', '0:01:07.056000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:59.333356', '0:01:08.841927')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=60.898</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=59.333356</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:08.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'F#:dim7', 'G:min', 'F#:dim7'], ['D:7', 'G:min', 'F#:dim7', 'G:min']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:18.200000', '0:00:23.320000'), ('0:00:16.920000', '0:00:22.040000')]</t>
+          <t>('0:03:02.640000', '0:03:04.840000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.720000'), ('0:01:12.840000', '0:01:22.480000')]</t>
+          <t>('0:00:43.780000', '0:00:46.440000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=18.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=182.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=72.84']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=43.78</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_266</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['E', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['E/4', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:01:29.915646', '0:01:37.020952')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:09.880000')]</t>
+          <t>('0:00:32.311000', '0:00:37.280000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-266#t=89.915646</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=32.311</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
